--- a/uipath-projects/OpenWeather_GSheets_ReportBot/Data/InputCities.xlsx
+++ b/uipath-projects/OpenWeather_GSheets_ReportBot/Data/InputCities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Giancarlo\GitHub\automation-ai-portfolio\uipath-projects\OpenWeather_GSheets_ReportBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB81BA8-42EB-4098-8C3D-184108FFC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E76D40-A7B1-4894-BCDF-1DA2BCF113AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Quito</t>
-  </si>
-  <si>
-    <t>Santiago</t>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Amsterdan</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Madrid</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,6 +397,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uipath-projects/OpenWeather_GSheets_ReportBot/Data/InputCities.xlsx
+++ b/uipath-projects/OpenWeather_GSheets_ReportBot/Data/InputCities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Giancarlo\GitHub\automation-ai-portfolio\uipath-projects\OpenWeather_GSheets_ReportBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E76D40-A7B1-4894-BCDF-1DA2BCF113AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7C086C-8814-4DC3-8987-7A21964D7007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,26 +30,26 @@
     <t>City</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
     <t>Amsterdan</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>Rome</t>
   </si>
   <si>
-    <t>Madrid</t>
+    <t>London1</t>
+  </si>
+  <si>
+    <t>Paris2</t>
+  </si>
+  <si>
+    <t>Madrid$$$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,28 +393,31 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uipath-projects/OpenWeather_GSheets_ReportBot/Data/InputCities.xlsx
+++ b/uipath-projects/OpenWeather_GSheets_ReportBot/Data/InputCities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Giancarlo\GitHub\automation-ai-portfolio\uipath-projects\OpenWeather_GSheets_ReportBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7C086C-8814-4DC3-8987-7A21964D7007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F268E6-0DF3-4071-BB42-DAD5C74208BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>City</t>
   </si>
@@ -35,21 +35,12 @@
   <si>
     <t>Rome</t>
   </si>
-  <si>
-    <t>London1</t>
-  </si>
-  <si>
-    <t>Paris2</t>
-  </si>
-  <si>
-    <t>Madrid$$$</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +50,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,10 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,13 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -393,31 +378,13 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
